--- a/Subjects_ID.xlsx
+++ b/Subjects_ID.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$46</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="59">
   <si>
     <t xml:space="preserve">Manip</t>
   </si>
@@ -28,15 +31,18 @@
     <t xml:space="preserve">sub</t>
   </si>
   <si>
+    <t xml:space="preserve">group_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
     <t xml:space="preserve">group</t>
   </si>
   <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
     <t xml:space="preserve">JND_P</t>
   </si>
   <si>
@@ -191,6 +197,9 @@
   </si>
   <si>
     <t xml:space="preserve">sub-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub-51</t>
   </si>
 </sst>
 </file>
@@ -328,7 +337,20 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,10 +358,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ46"/>
+  <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G47" activeCellId="0" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -366,32 +388,32 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AMI1" s="1"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>9.56</v>
@@ -399,22 +421,22 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="6" t="n">
         <v>6.69</v>
@@ -422,22 +444,22 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>28</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>12.92</v>
@@ -445,22 +467,22 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>1.95</v>
@@ -468,22 +490,22 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>2.54</v>
@@ -491,22 +513,22 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>67</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>4.48</v>
@@ -514,22 +536,22 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>73</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>9.63</v>
@@ -537,22 +559,22 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>64</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>7.27</v>
@@ -560,22 +582,22 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>21</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>1.62</v>
@@ -583,22 +605,22 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>21</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>3.68</v>
@@ -606,22 +628,22 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>21</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>0.47</v>
@@ -629,22 +651,22 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>23</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>1.55</v>
@@ -652,22 +674,22 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>67</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>10.87</v>
@@ -675,22 +697,22 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>20</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>9.06</v>
@@ -698,22 +720,22 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>73</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="4" t="n">
         <v>16.23</v>
@@ -721,22 +743,22 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>74</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>6.68</v>
@@ -744,22 +766,22 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>21</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="7" t="n">
         <v>3.04</v>
@@ -767,22 +789,22 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>28</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>3.04</v>
@@ -790,22 +812,22 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>66</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>17</v>
@@ -813,22 +835,22 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>69</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" s="4" t="n">
         <v>8.4</v>
@@ -836,22 +858,22 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>20</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>3.82</v>
@@ -859,22 +881,22 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>69</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>9.07</v>
@@ -882,22 +904,22 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>74</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G24" s="4" t="n">
         <v>8.78</v>
@@ -905,22 +927,22 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>25</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>1.67</v>
@@ -928,22 +950,22 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>22</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" s="4" t="n">
         <v>2.69</v>
@@ -951,22 +973,22 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>72</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G27" s="4" t="n">
         <v>17</v>
@@ -974,22 +996,22 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>24</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" s="4" t="n">
         <v>3.48</v>
@@ -997,22 +1019,22 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>70</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G29" s="4" t="n">
         <v>14.86</v>
@@ -1020,22 +1042,22 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>67</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G30" s="4" t="n">
         <v>4.37</v>
@@ -1043,22 +1065,22 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>27</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>3.05</v>
@@ -1066,22 +1088,22 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>21</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32" s="4" t="n">
         <v>5.21</v>
@@ -1089,22 +1111,22 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>66</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G33" s="4" t="n">
         <v>8.55</v>
@@ -1112,22 +1134,22 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>27</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G34" s="4" t="n">
         <v>0.37</v>
@@ -1135,22 +1157,22 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>66</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G35" s="4" t="n">
         <v>7.03</v>
@@ -1158,22 +1180,22 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>64</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G36" s="4" t="n">
         <v>6.96</v>
@@ -1181,22 +1203,22 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>25</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G37" s="4" t="n">
         <v>3.9</v>
@@ -1204,106 +1226,106 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>69</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>69</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>68</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>67</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>73</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>14.419</v>
@@ -1311,22 +1333,22 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>65</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>7.8447</v>
@@ -1334,22 +1356,22 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>85</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>13.0529</v>
@@ -1357,22 +1379,22 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>69</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>14.7469</v>
@@ -1380,34 +1402,56 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>70</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>15.166</v>
       </c>
     </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>5.5027</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G46"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>